--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value228.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value228.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9489955898016659</v>
+        <v>1.235146045684814</v>
       </c>
       <c r="B1">
-        <v>0.9098759207975625</v>
+        <v>2.179468154907227</v>
       </c>
       <c r="C1">
-        <v>0.890680517720278</v>
+        <v>4.203808784484863</v>
       </c>
       <c r="D1">
-        <v>1.095991359462179</v>
+        <v>3.040886878967285</v>
       </c>
       <c r="E1">
-        <v>1.609664615920869</v>
+        <v>1.068594217300415</v>
       </c>
     </row>
   </sheetData>
